--- a/biology/Botanique/Nom_trinominal/Nom_trinominal.xlsx
+++ b/biology/Botanique/Nom_trinominal/Nom_trinominal.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">En taxinomie et en nomenclature binominale le nom trinominal (que l'on appelle aussi nom trinomial ou trinôme) provient de la combinaison de trois termes ou noms servant à désigner un taxon de rang inférieur à celui de l'espèce. Le lion d'Asie, une sous-espèce de lion, se voit ainsi baptisé par exemple avec le nom trinominal Panthera leo persica, où Panthera leo est le nom scientifique de l'espèce et Panthera leo persica celui de la sous-espèce. Le premier terme est celui du genre et sa première lettre est toujours une majuscule alors que les deux autres termes s'écrivent entièrement en minuscules (voir Nom binominal).
 Dans les cas de la botanique et de la mycologie cela se fait après l'indication du rang : Tricholoma saponaceum var. fagetorum. D'autres rangs plus rarement utilisés sont la sous-variété (« subvar. »), la forme (« f. »), le groupe, le cultivar etc. Le rang que l'on retrouve le plus souvent, la variété (« var. »), est aussi appliqué aux animaux dont la variation n'est pas aussi clairement définie que celle d'une sous-espèce naturelle, comme certaines races d'élevage. Par exemple l'âne catalan : Equus asinus var. catalana. 
